--- a/02_RAW-Data/menores_1_año.xlsx
+++ b/02_RAW-Data/menores_1_año.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\enflujo\Documents\GitHub\Ninez-YA\02_RAW-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B1DE9-E4D5-4C15-9252-21B56D6F76C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594A0F95-DDED-40D9-ABAA-AD74D72F38C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
